--- a/biology/Microbiologie/Diplocoque/Diplocoque.xlsx
+++ b/biology/Microbiologie/Diplocoque/Diplocoque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les diplocoques sont des bactéries que l'on retrouve sous forme de petits grains de café identiques accolées deux à deux à l'observation au microscope[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les diplocoques sont des bactéries que l'on retrouve sous forme de petits grains de café identiques accolées deux à deux à l'observation au microscope. 
 Ces agents microbiens sont caractérisés par leur potentiel infectieux. Les infections par le Méningocoque (gram -), le Gonocoque (gram -) ou encore le Pneumocoque (gram +) sont caractérisées par cette forme de regroupement cytologique.
 </t>
         </is>
@@ -512,19 +524,134 @@
           <t>classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Si aucune bactérie n'est strictement diplocoque, le genre diplococcus ayant disparu, la coloration de Gram permet de différencier 2 catégories de diplocoques[2].
-coques à Gram positif
-Espèces pathogènes
-Streptococcus pneumoniae
-coques à Gram négatif
-Espèces pathogènes
-Neisseria meningitidis
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Si aucune bactérie n'est strictement diplocoque, le genre diplococcus ayant disparu, la coloration de Gram permet de différencier 2 catégories de diplocoques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Diplocoque</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diplocoque</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>coques à Gram positif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Espèces pathogènes</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Streptococcus pneumoniae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diplocoque</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diplocoque</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>coques à Gram négatif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Espèces pathogènes</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Neisseria meningitidis
 Neisseria gonorrhoeae
-Moraxella catarrhalis (plutôt diplococcobacille)
-Espèces commensales non pathogènes
-Neisseria cinerea
+Moraxella catarrhalis (plutôt diplococcobacille)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diplocoque</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diplocoque</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>coques à Gram négatif</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Espèces commensales non pathogènes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Neisseria cinerea
 Neisseria elongata
 Neisseria flavescens
 Neisseria lactamica
